--- a/data/trans_bre/P16A11-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A11-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,15%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,22; 12,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,63; 11,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,0; 12,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,11; 17,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,53; 51,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,55; 36,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,16; 45,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,67; 51,18</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,17%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 1,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 0,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 2,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 18,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,02; 23,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,65; 10,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,95; 22,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,05; 120,0</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,45%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; 1,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,03; 0,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,1; -0,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,85; -3,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,82; 19,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,75; 7,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,82; -2,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,03; -23,41</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,14%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 5,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 6,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,13; 4,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 12,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,09; 48,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,05; 39,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,34; 33,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,99; 65,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A11-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,03</t>
+          <t>13,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>36,27%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,11; 17,57</t>
+          <t>8,33; 17,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,67; 51,18</t>
+          <t>20,77; 53,3</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>49,55%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 18,29</t>
+          <t>-2,27; 33,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 120,0</t>
+          <t>-15,93; 255,02</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,69</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-39,45%</t>
+          <t>-39,99%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -3,55</t>
+          <t>-9,95; -3,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-52,03; -23,41</t>
+          <t>-52,37; -24,11</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>39,34%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 12,1</t>
+          <t>1,54; 22,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 65,13</t>
+          <t>7,9; 140,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A11-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 12,0</t>
+          <t>4,57; 11,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,63; 11,67</t>
+          <t>3,56; 11,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 12,8</t>
+          <t>3,1; 12,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 17,72</t>
+          <t>8,42; 17,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,53; 51,39</t>
+          <t>16,52; 50,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,55; 36,11</t>
+          <t>9,88; 36,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,16; 45,6</t>
+          <t>9,34; 44,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,77; 53,3</t>
+          <t>21,55; 53,61</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,27</t>
+          <t>-2,06; 1,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,87</t>
+          <t>-3,19; 0,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,15</t>
+          <t>-1,84; 2,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 33,13</t>
+          <t>-2,42; 29,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,02; 23,61</t>
+          <t>-28,76; 24,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 10,13</t>
+          <t>-30,93; 8,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 22,21</t>
+          <t>-16,07; 22,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 255,02</t>
+          <t>-16,28; 217,98</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 1,14</t>
+          <t>-5,13; 1,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 0,55</t>
+          <t>-7,29; 0,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,1; -0,35</t>
+          <t>-7,62; -0,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -3,61</t>
+          <t>-9,95; -3,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,82; 19,02</t>
+          <t>-54,54; 20,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-62,75; 7,09</t>
+          <t>-61,53; 13,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-64,82; -2,35</t>
+          <t>-65,51; -7,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-52,37; -24,11</t>
+          <t>-52,19; -23,32</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,82</t>
+          <t>2,28; 5,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,23</t>
+          <t>2,29; 6,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,68</t>
+          <t>1,29; 4,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 22,24</t>
+          <t>1,34; 20,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,09; 48,49</t>
+          <t>17,1; 47,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,05; 39,12</t>
+          <t>12,89; 40,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,34; 33,65</t>
+          <t>8,1; 34,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,9; 140,24</t>
+          <t>7,24; 135,76</t>
         </is>
       </c>
     </row>
